--- a/DataConfig/Excel/comment.xlsx
+++ b/DataConfig/Excel/comment.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13170" windowHeight="7545"/>
+    <workbookView windowWidth="20745" windowHeight="12015"/>
   </bookViews>
   <sheets>
-    <sheet name="ACCOUNT" sheetId="1" r:id="rId1"/>
+    <sheet name="COMMENT" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -66,9 +66,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -99,12 +99,115 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -112,16 +215,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,92 +257,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="42"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -232,34 +276,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -269,6 +295,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color indexed="62"/>
@@ -301,38 +333,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="50">
     <fill>
@@ -349,43 +349,223 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,175 +577,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,55 +607,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,6 +636,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -663,61 +722,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color indexed="49"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color indexed="63"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color indexed="63"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color indexed="63"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,32 +793,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,41 +825,6 @@
       <top/>
       <bottom style="medium">
         <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,268 +849,268 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="44" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,9 +1159,9 @@
     <cellStyle name="着色 2 2" xfId="5"/>
     <cellStyle name="20% - 着色 6 2" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="9"/>
-    <cellStyle name="40% - 着色 4 2" xfId="10"/>
+    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="10"/>
     <cellStyle name="差" xfId="11" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
@@ -1515,14 +1515,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="4" width="17.4416666666667" customWidth="1"/>
     <col min="5" max="5" width="14.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" ht="14.25" spans="1:65">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1597,7 +1597,7 @@
       <c r="BL1" s="1"/>
       <c r="BM1" s="1"/>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" ht="14.25" spans="2:5">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" ht="14.25" spans="2:5">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" ht="14.25" spans="2:5">
       <c r="B5" s="8">
         <v>1</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" ht="14.25" spans="2:5">
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" ht="14.25" spans="2:5">
       <c r="B7" s="8">
         <v>3</v>
       </c>

--- a/DataConfig/Excel/comment.xlsx
+++ b/DataConfig/Excel/comment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20745" windowHeight="12015"/>
+    <workbookView windowWidth="18015" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="COMMENT" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>required</t>
   </si>
@@ -54,22 +54,16 @@
   <si>
     <t>deepblue</t>
   </si>
-  <si>
-    <t>abel</t>
-  </si>
-  <si>
-    <t>alva</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -106,24 +100,78 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,35 +179,6 @@
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -170,6 +189,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -178,20 +205,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -202,7 +219,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,36 +240,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -263,21 +282,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="42"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -295,12 +314,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color indexed="62"/>
@@ -314,25 +327,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="50">
     <fill>
@@ -349,13 +343,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,13 +475,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,19 +505,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,19 +553,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,151 +589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,37 +613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,6 +630,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -663,41 +681,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -715,9 +698,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,6 +746,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -759,6 +768,21 @@
       </top>
       <bottom style="double">
         <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,21 +802,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -828,253 +837,238 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1083,34 +1077,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="46" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,9 +1153,9 @@
     <cellStyle name="着色 2 2" xfId="5"/>
     <cellStyle name="20% - 着色 6 2" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 着色 4 2" xfId="8"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="9"/>
+    <cellStyle name="40% - 着色 4 2" xfId="10"/>
     <cellStyle name="差" xfId="11" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
@@ -1509,20 +1503,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BM7"/>
+  <dimension ref="A1:BM6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="4" width="17.4416666666667" customWidth="1"/>
     <col min="5" max="5" width="14.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:65">
+    <row r="1" spans="1:65">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1597,7 +1591,7 @@
       <c r="BL1" s="1"/>
       <c r="BM1" s="1"/>
     </row>
-    <row r="2" ht="14.25" spans="2:5">
+    <row r="2" spans="2:5">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1611,7 +1605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:5">
+    <row r="3" spans="2:5">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1642,47 +1636,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:5">
+    <row r="5" spans="2:5">
       <c r="B5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:5">
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="2:5">
-      <c r="B7" s="8">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
+    <row r="6" spans="2:5">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataConfig/Excel/comment.xlsx
+++ b/DataConfig/Excel/comment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>required</t>
   </si>
@@ -37,6 +37,9 @@
     <t>comment_info</t>
   </si>
   <si>
+    <t>order</t>
+  </si>
+  <si>
     <t>评论表</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>内容</t>
   </si>
   <si>
+    <t>显示控制</t>
+  </si>
+  <si>
     <t>deepblue</t>
   </si>
 </sst>
@@ -60,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -93,14 +99,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,15 +201,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,140 +247,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <sz val="13"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -289,6 +291,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -296,37 +304,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="42"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="50">
     <fill>
@@ -343,13 +349,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,31 +505,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,49 +529,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,145 +577,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,18 +620,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,6 +636,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -657,11 +702,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,71 +753,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="63"/>
       </left>
       <right style="thin">
@@ -763,11 +769,62 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="49"/>
       </top>
       <bottom style="double">
         <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,325 +843,274 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="48" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="46" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="40" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,9 +1159,9 @@
     <cellStyle name="着色 2 2" xfId="5"/>
     <cellStyle name="20% - 着色 6 2" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="9"/>
-    <cellStyle name="40% - 着色 4 2" xfId="10"/>
+    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="10"/>
     <cellStyle name="差" xfId="11" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
@@ -1506,7 +1512,7 @@
   <dimension ref="A1:BM6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1530,7 +1536,9 @@
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1591,7 +1599,7 @@
       <c r="BL1" s="1"/>
       <c r="BM1" s="1"/>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1604,8 +1612,11 @@
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:6">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1618,25 +1629,31 @@
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:5">
+    <row r="4" ht="75" customHeight="1" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:6">
       <c r="B5" s="8">
         <v>0</v>
       </c>
@@ -1647,7 +1664,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:5">

--- a/DataConfig/Excel/comment.xlsx
+++ b/DataConfig/Excel/comment.xlsx
@@ -19,7 +19,7 @@
     <author>Frosty</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>required</t>
   </si>
@@ -86,6 +86,14 @@
   </si>
   <si>
     <t>deepblue</t>
+  </si>
+  <si>
+    <t>target_id</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象id</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -942,20 +950,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM6"/>
+  <dimension ref="A1:BN6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="2" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="14.25">
+    <row r="1" spans="1:66" ht="14.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -972,19 +980,21 @@
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="2"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="3"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="2"/>
+      <c r="S1" s="3"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -1019,10 +1029,10 @@
       <c r="AY1" s="2"/>
       <c r="AZ1" s="2"/>
       <c r="BA1" s="2"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="11"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="10"/>
       <c r="BD1" s="11"/>
-      <c r="BE1" s="1"/>
+      <c r="BE1" s="11"/>
       <c r="BF1" s="1"/>
       <c r="BG1" s="1"/>
       <c r="BH1" s="1"/>
@@ -1031,8 +1041,9 @@
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
       <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
     </row>
-    <row r="2" spans="1:65" ht="14.25">
+    <row r="2" spans="1:66" ht="14.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1043,30 +1054,36 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25">
+    <row r="3" spans="1:66" ht="14.25">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="75" customHeight="1">
+    <row r="4" spans="1:66" ht="75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1074,19 +1091,22 @@
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25">
+    <row r="5" spans="1:66" ht="14.25">
       <c r="B5" s="8">
         <v>0</v>
       </c>
@@ -1096,18 +1116,22 @@
       <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25">
+    <row r="6" spans="1:66" ht="14.25">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
